--- a/vaadin-spreadsheet/src/test/resources/test_sheets/Groupingtest.xlsx
+++ b/vaadin-spreadsheet/src/test/resources/test_sheets/Groupingtest.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn\GIT\tagetik-2017-spreadsheet-1.4\tagetik-2017-spreadsheet\vaadin-spreadsheet\src\test\resources\test_sheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4820" yWindow="2260" windowWidth="25600" windowHeight="11600" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="4815" yWindow="2265" windowWidth="25605" windowHeight="11595" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,6 +78,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -404,16 +417,16 @@
       <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="10.83203125" outlineLevel="1"/>
+    <col min="2" max="5" width="10.875" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="8:8" outlineLevel="1"/>
-    <row r="3" spans="8:8" outlineLevel="1"/>
-    <row r="4" spans="8:8" outlineLevel="1"/>
-    <row r="5" spans="8:8" outlineLevel="1"/>
-    <row r="15" spans="8:8">
+    <row r="2" spans="8:8" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="8:8" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="8:8" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="8:8" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
         <v>0</v>
       </c>
@@ -436,19 +449,19 @@
       <selection activeCell="I20" sqref="I20:I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="2" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="3" width="10.83203125" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="6" width="10.83203125" customWidth="1" outlineLevel="2"/>
-    <col min="7" max="8" width="10.83203125" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="12" width="10.83203125" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="1" max="1" width="10.875" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="3" width="10.875" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="10.875" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="6" width="10.875" customWidth="1" outlineLevel="2"/>
+    <col min="7" max="8" width="10.875" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="12" width="10.875" hidden="1" customWidth="1" outlineLevel="2"/>
     <col min="13" max="13" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="10.83203125" collapsed="1"/>
+    <col min="14" max="14" width="10.875" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="15:15">
+    <row r="3" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O3" t="s">
         <v>0</v>
       </c>
@@ -471,15 +484,15 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="7" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="7" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" customWidth="1" outlineLevel="7"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1" outlineLevel="6"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1" outlineLevel="5"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1" outlineLevel="4"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1" outlineLevel="3"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1" outlineLevel="2"/>
-    <col min="8" max="8" width="10.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="2" width="10.875" customWidth="1" outlineLevel="7"/>
+    <col min="3" max="3" width="10.875" customWidth="1" outlineLevel="6"/>
+    <col min="4" max="4" width="10.875" customWidth="1" outlineLevel="5"/>
+    <col min="5" max="5" width="10.875" customWidth="1" outlineLevel="4"/>
+    <col min="6" max="6" width="10.875" customWidth="1" outlineLevel="3"/>
+    <col min="7" max="7" width="10.875" customWidth="1" outlineLevel="2"/>
+    <col min="8" max="8" width="10.875" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -499,19 +512,19 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" outlineLevel="1"/>
-    <row r="2" outlineLevel="2"/>
-    <row r="3" outlineLevel="2"/>
-    <row r="4" outlineLevel="1"/>
-    <row r="5" outlineLevel="2"/>
-    <row r="6" outlineLevel="2"/>
-    <row r="7" outlineLevel="1"/>
-    <row r="8" outlineLevel="1"/>
-    <row r="10" outlineLevel="2"/>
-    <row r="11" outlineLevel="2"/>
-    <row r="12" outlineLevel="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="2" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="3" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="4" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="5" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="6" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="7" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="8" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="10" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="11" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="12" outlineLevel="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -530,16 +543,16 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="7" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" outlineLevel="7"/>
-    <row r="2" outlineLevel="7"/>
-    <row r="3" outlineLevel="6"/>
-    <row r="4" outlineLevel="5"/>
-    <row r="5" outlineLevel="4"/>
-    <row r="6" outlineLevel="3"/>
-    <row r="7" outlineLevel="2"/>
-    <row r="8" outlineLevel="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="7" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" outlineLevel="7" x14ac:dyDescent="0.25"/>
+    <row r="2" outlineLevel="7" x14ac:dyDescent="0.25"/>
+    <row r="3" outlineLevel="6" x14ac:dyDescent="0.25"/>
+    <row r="4" outlineLevel="5" x14ac:dyDescent="0.25"/>
+    <row r="5" outlineLevel="4" x14ac:dyDescent="0.25"/>
+    <row r="6" outlineLevel="3" x14ac:dyDescent="0.25"/>
+    <row r="7" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="8" outlineLevel="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -558,25 +571,25 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="7" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="7" outlineLevelCol="7" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" outlineLevel="7"/>
-    <col min="3" max="3" width="10.83203125" outlineLevel="6"/>
-    <col min="4" max="4" width="10.83203125" outlineLevel="5"/>
-    <col min="5" max="5" width="10.83203125" outlineLevel="4"/>
-    <col min="6" max="6" width="10.83203125" outlineLevel="3"/>
-    <col min="7" max="7" width="10.83203125" outlineLevel="2"/>
-    <col min="8" max="8" width="10.83203125" outlineLevel="1"/>
+    <col min="1" max="2" width="10.875" outlineLevel="7"/>
+    <col min="3" max="3" width="10.875" outlineLevel="6"/>
+    <col min="4" max="4" width="10.875" outlineLevel="5"/>
+    <col min="5" max="5" width="10.875" outlineLevel="4"/>
+    <col min="6" max="6" width="10.875" outlineLevel="3"/>
+    <col min="7" max="7" width="10.875" outlineLevel="2"/>
+    <col min="8" max="8" width="10.875" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" outlineLevel="7"/>
-    <row r="2" outlineLevel="7"/>
-    <row r="3" outlineLevel="6"/>
-    <row r="4" outlineLevel="5"/>
-    <row r="5" outlineLevel="4"/>
-    <row r="6" outlineLevel="3"/>
-    <row r="7" outlineLevel="2"/>
-    <row r="8" outlineLevel="1"/>
+    <row r="1" outlineLevel="7" x14ac:dyDescent="0.25"/>
+    <row r="2" outlineLevel="7" x14ac:dyDescent="0.25"/>
+    <row r="3" outlineLevel="6" x14ac:dyDescent="0.25"/>
+    <row r="4" outlineLevel="5" x14ac:dyDescent="0.25"/>
+    <row r="5" outlineLevel="4" x14ac:dyDescent="0.25"/>
+    <row r="6" outlineLevel="3" x14ac:dyDescent="0.25"/>
+    <row r="7" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="8" outlineLevel="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -590,7 +603,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B3:G11"/>
@@ -599,16 +612,16 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="2" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="4" width="10.83203125" customWidth="1" outlineLevel="2"/>
+    <col min="2" max="2" width="10.875" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="4" width="10.875" customWidth="1" outlineLevel="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="7:7" outlineLevel="1"/>
-    <row r="4" spans="7:7" outlineLevel="2"/>
-    <row r="5" spans="7:7" outlineLevel="2"/>
-    <row r="11" spans="7:7">
+    <row r="3" spans="7:7" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="7:7" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="7:7" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
         <v>0</v>
       </c>
@@ -632,17 +645,17 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="2" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" collapsed="1"/>
-    <col min="2" max="2" width="10.83203125" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="3" max="4" width="10.83203125" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="5" max="5" width="10.83203125" collapsed="1"/>
+    <col min="1" max="1" width="10.875" collapsed="1"/>
+    <col min="2" max="2" width="10.875" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="3" max="4" width="10.875" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="5" max="5" width="10.875" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="3" outlineLevel="1"/>
-    <row r="4" outlineLevel="2"/>
-    <row r="5" outlineLevel="2"/>
+    <row r="3" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="4" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="5" outlineLevel="2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -661,17 +674,17 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="10.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="4" width="10.875" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="2" outlineLevel="1"/>
-    <row r="3" outlineLevel="1"/>
-    <row r="4" outlineLevel="1"/>
+    <row r="2" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="3" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="4" outlineLevel="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
